--- a/data/long_dif/P24_9-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_9-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,65%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,57</t>
+          <t>0,72; 6,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 16,84</t>
+          <t>4,58; 16,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 14,49</t>
+          <t>2,94; 13,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 12,03</t>
+          <t>1,59; 14,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 12,73</t>
+          <t>2,56; 11,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 12,09</t>
+          <t>2,7; 12,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,45</t>
+          <t>3,3; 12,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 13,11</t>
+          <t>0,6; 6,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 11,22</t>
+          <t>2,03; 7,28</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 11,67</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,82; 11,17</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 9,03</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>89,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>84,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82,98%</t>
+          <t>83,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,05%</t>
+          <t>76,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>85,09%</t>
+          <t>86,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>89,36%</t>
+          <t>85,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>84,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>87,97%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>85,13%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>86,69%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>80,64%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,63; 94,09</t>
+          <t>82,55; 94,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,25; 90,62</t>
+          <t>75,54; 90,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,81; 90,43</t>
+          <t>74,56; 90,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,09; 91,99</t>
+          <t>62,34; 86,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>77,3; 90,81</t>
+          <t>79,72; 92,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,49; 93,71</t>
+          <t>78,39; 90,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,85; 92,26</t>
+          <t>83,37; 93,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>78,0; 89,04</t>
+          <t>75,8; 90,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>80,21; 90,71</t>
+          <t>83,56; 91,88</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>79,81; 89,65</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>80,77; 90,99</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>72,21; 86,31</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15,36%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 14,36</t>
+          <t>4,46; 13,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 14,53</t>
+          <t>2,05; 12,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 20,62</t>
+          <t>4,47; 17,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 12,96</t>
+          <t>8,28; 30,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 14,88</t>
+          <t>3,32; 12,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 8,54</t>
+          <t>4,06; 13,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,35</t>
+          <t>1,34; 7,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 12,74</t>
+          <t>7,53; 22,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 11,92</t>
+          <t>4,58; 11,56</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 11,24</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 10,82</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10,15; 22,57</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 15,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 14,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 13,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 17,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 12,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 11,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>88,37%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>88,86%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>82,73%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>81,56%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>81,56%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>85,61%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>83,23%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>85,44%</t>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,63%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8,75%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>81,25; 93,34</t>
+          <t>0,0; 4,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>76,12; 90,37</t>
+          <t>4,62; 15,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>83,33; 93,63</t>
+          <t>2,94; 11,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75,73; 88,06</t>
+          <t>1,57; 10,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,27; 87,35</t>
+          <t>6,14; 15,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>75,12; 86,54</t>
+          <t>3,79; 13,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,24; 89,42</t>
+          <t>7,74; 17,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>77,61; 87,66</t>
+          <t>5,29; 19,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>81,14; 88,97</t>
+          <t>3,48; 8,8</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 13,13</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 12,21</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 12,12</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>88,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>84,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>87,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>81,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>81,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>77,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>85,3%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>83,09%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>85,13%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>82,9%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,69; 16,92</t>
+          <t>82,44; 93,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,74; 13,14</t>
+          <t>76,67; 91,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,77</t>
+          <t>81,84; 93,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,25; 13,42</t>
+          <t>79,2; 93,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 18,02</t>
+          <t>74,83; 87,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 11,23</t>
+          <t>73,3; 87,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,83; 12,83</t>
+          <t>75,04; 86,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,6; 12,61</t>
+          <t>68,39; 84,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,16</t>
+          <t>80,33; 88,99</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>77,53; 87,66</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>80,67; 88,84</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>76,45; 87,99</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8,28%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 6,98</t>
+          <t>5,85; 16,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,26; 28,97</t>
+          <t>2,13; 11,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 23,82</t>
+          <t>2,33; 10,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,47</t>
+          <t>3,93; 16,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,11</t>
+          <t>4,12; 13,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,22; 15,3</t>
+          <t>6,18; 17,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,03</t>
+          <t>3,74; 12,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,09; 18,74</t>
+          <t>7,04; 18,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,56; 17,48</t>
+          <t>6,05; 12,95</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 12,05</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 9,64</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 14,66</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>83,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>86,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>82,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>75,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>75,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>74,72%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>75,27; 88,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>56,5; 76,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>61,67; 81,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>81,96; 90,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>76,53; 86,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>71,11; 81,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>80,82; 88,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>68,72; 80,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>69,02; 78,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>4,89%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13,8%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>11,36%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>11,8%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,11; 20,86</t>
+          <t>1,93; 7,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,2; 26,59</t>
+          <t>13,22; 29,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,9; 24,02</t>
+          <t>6,42; 21,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,69; 11,79</t>
+          <t>7,47; 17,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,44</t>
+          <t>3,16; 9,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,39; 16,34</t>
+          <t>5,19; 12,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,63; 14,33</t>
+          <t>8,21; 15,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,71; 17,75</t>
+          <t>7,89; 16,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10,19; 18,67</t>
+          <t>3,19; 7,25</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 19,08</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>8,65; 16,25</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8,95; 15,52</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>80,78%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>67,6%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>74,09%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>80,03%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>86,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>81,72%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>75,63%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>74,39%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>83,39%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>74,94%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>74,88%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>77,07%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,37; 6,59</t>
+          <t>73,0; 86,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,28</t>
+          <t>55,63; 75,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,42; 13,34</t>
+          <t>63,82; 81,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,48; 11,16</t>
+          <t>73,39; 85,98</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,98</t>
+          <t>81,01; 90,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,7; 10,71</t>
+          <t>76,18; 86,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,79</t>
+          <t>70,73; 80,91</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,04</t>
+          <t>67,74; 79,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,25</t>
+          <t>79,45; 87,07</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>67,84; 79,36</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>69,0; 79,22</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>72,39; 81,06</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>83,26%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>80,63%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>86,75%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>83,21%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>79,68%</t>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>11,26%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>13,76%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>11,13%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>86,63; 93,94</t>
+          <t>10,25; 22,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>80,81; 90,04</t>
+          <t>6,68; 30,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>74,78; 85,12</t>
+          <t>9,61; 26,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>78,02; 87,52</t>
+          <t>4,67; 13,06</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>74,69; 85,07</t>
+          <t>5,02; 12,46</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>74,4; 83,52</t>
+          <t>6,8; 14,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>83,08; 89,61</t>
+          <t>8,96; 17,14</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>79,18; 86,01</t>
+          <t>10,32; 19,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>75,86; 82,78</t>
+          <t>8,37; 15,24</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 18,41</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 19,51</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>8,56; 14,51</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,74 +2228,89 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>3,29; 9,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,96; 13,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>6,81; 14,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,08; 13,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,74; 17,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>10,25; 18,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>8,38; 14,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>9,4; 15,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1940,27 +2320,42 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,03; 22,77</t>
+          <t>1,69; 6,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,82; 11,75</t>
+          <t>2,53; 9,04</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,09; 15,34</t>
+          <t>6,41; 13,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5,26; 18,22</t>
+          <t>6,32; 15,17</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,6; 21,62</t>
+          <t>4,58; 11,4</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,53; 15,59</t>
+          <t>4,39; 11,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>5,27; 16,32</t>
+          <t>4,75; 10,67</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,58; 14,06</t>
+          <t>7,97; 16,39</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>8,25; 13,89</t>
+          <t>3,71; 7,78</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 9,29</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 11,21</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 14,31</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>77,73%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>80,96%</t>
+          <t>80,14%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>77,06%</t>
+          <t>71,69%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>73,02%</t>
+          <t>82,82%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>80,86%</t>
+          <t>79,92%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>81,68%</t>
+          <t>78,61%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>75,46%</t>
+          <t>67,4%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>80,91%</t>
+          <t>86,54%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>82,73%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>79,35%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>69,52%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>74,87; 92,63</t>
+          <t>86,29; 93,97</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>67,6; 84,51</t>
+          <t>80,31; 90,59</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>74,85; 85,99</t>
+          <t>74,88; 84,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>69,65; 83,87</t>
+          <t>64,08; 78,49</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>64,76; 79,8</t>
+          <t>77,6; 87,73</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>75,21; 85,77</t>
+          <t>74,14; 84,93</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>75,27; 86,56</t>
+          <t>73,52; 82,8</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>69,87; 80,73</t>
+          <t>61,2; 73,62</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>77,05; 84,18</t>
+          <t>83,3; 89,53</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>78,86; 86,22</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>75,49; 82,43</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>64,31; 74,48</t>
         </is>
       </c>
     </row>
@@ -2127,52 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>7,99%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>12,04%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2,49; 10,2</t>
+          <t>3,46; 10,1</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>10,28; 26,24</t>
+          <t>6,05; 13,89</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>5,14; 12,94</t>
+          <t>6,58; 14,68</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>8,3; 18,18</t>
+          <t>12,77; 24,59</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>8,8; 19,14</t>
+          <t>6,47; 14,18</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,3</t>
+          <t>8,59; 17,69</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>6,56; 12,29</t>
+          <t>10,29; 18,32</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>10,56; 19,94</t>
+          <t>15,59; 27,52</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>5,84; 11,13</t>
+          <t>5,76; 10,51</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>8,32; 14,26</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>9,62; 15,07</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>15,74; 24,02</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>4,09; 39,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>3,69; 12,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>4,98; 16,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7,57; 19,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>5,96; 15,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>7,69; 24,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>84,77%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>76,85%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>80,58%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>78,75%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>77,71%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>81,38%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>77,36%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>78,1%</t>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>9,12%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>67,19; 92,31</t>
+          <t>3,47; 21,98</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>56,62; 87,79</t>
+          <t>2,47; 10,19</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>71,86; 86,92</t>
+          <t>7,38; 15,89</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>70,13; 84,77</t>
+          <t>5,72; 21,71</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>69,1; 84,53</t>
+          <t>4,76; 14,99</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>68,73; 83,3</t>
+          <t>8,39; 20,2</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>74,79; 86,67</t>
+          <t>7,45; 15,77</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>66,49; 83,81</t>
+          <t>4,72; 13,75</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>72,74; 83,36</t>
+          <t>5,3; 16,03</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 12,64</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>8,44; 14,54</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>6,4; 14,92</t>
         </is>
       </c>
     </row>
@@ -2449,52 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>77,68%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>74,38%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>78,11%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>72,96%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>80,56%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>75,63%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>82,27%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>75,4%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>80,58%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>5,5; 30,18</t>
+          <t>73,58; 91,78</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>4,03; 14,37</t>
+          <t>67,52; 84,32</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>6,48; 22,39</t>
+          <t>74,73; 85,19</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>7,51; 18,32</t>
+          <t>65,31; 81,83</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>5,6; 17,5</t>
+          <t>70,55; 84,0</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>8,53; 21,17</t>
+          <t>65,66; 79,46</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>8,06; 19,22</t>
+          <t>75,49; 85,91</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,04; 14,22</t>
+          <t>67,31; 82,21</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>8,77; 18,63</t>
+          <t>76,09; 86,32</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>69,72; 80,44</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>76,95; 84,22</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>68,7; 79,73</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>15,66%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,69</t>
+          <t>2,59; 8,97</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>8,33; 16,14</t>
+          <t>11,22; 27,7</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,31</t>
+          <t>5,19; 12,68</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,31</t>
+          <t>9,74; 21,94</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>7,35; 11,07</t>
+          <t>8,91; 19,05</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>8,24; 11,46</t>
+          <t>8,94; 19,97</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,23</t>
+          <t>4,75; 12,25</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>8,34; 12,43</t>
+          <t>10,63; 24,11</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>8,02; 10,61</t>
+          <t>6,44; 12,8</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 21,24</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 10,97</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>11,77; 20,28</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>79,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>80,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>82,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>80,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>79,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>80,45%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>83,17; 89,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>74,71; 82,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>77,36; 83,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>79,88; 84,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>77,43; 82,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>77,5; 82,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>82,57; 86,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>77,11; 81,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>78,38; 82,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>12,17%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>7,53; 12,87</t>
+          <t>0,74; 7,12</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>7,79; 13,51</t>
+          <t>4,34; 32,13</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>8,2; 13,15</t>
+          <t>4,33; 12,93</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,41</t>
+          <t>3,24; 20,47</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>9,04; 12,91</t>
+          <t>5,93; 21,02</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,33</t>
+          <t>7,49; 18,18</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>8,07; 11,16</t>
+          <t>6,27; 15,51</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,14</t>
+          <t>2,92; 13,83</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>8,9; 12,0</t>
+          <t>4,36; 13,11</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>7,63; 21,46</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>6,27; 12,67</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 13,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>83,84%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>78,93%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>80,75%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>72,82%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>77,17%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>77,9%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>75,05%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>73,33%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>80,09%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>78,33%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>77,56%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>73,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>66,58; 91,4</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>62,39; 87,69</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>70,64; 86,86</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>61,04; 82,57</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>67,49; 83,19</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>69,48; 84,54</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>67,22; 81,64</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>62,74; 81,8</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>71,62; 85,07</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>69,74; 83,81</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>70,93; 81,9</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>65,69; 79,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>13,29%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>11,56%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>18,37%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>12,1%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>14,88%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>20,38%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>12,62%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>13,42%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>19,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>6,19; 31,05</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 14,57</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 20,47</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>11,41; 28,99</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>7,51; 17,8</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 16,94</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>9,62; 23,32</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>12,97; 30,94</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>8,32; 21,15</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 13,59</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>9,47; 19,85</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>13,83; 26,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>8,72%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>9,73%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 5,92</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>8,28; 14,05</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>7,14; 11,25</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 11,37</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>6,48; 10,47</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 10,97</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 11,67</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 10,81</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 7,47</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>8,13; 11,67</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>8,24; 10,8</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 10,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>86,37%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>79,63%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>81,14%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>77,35%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>82,02%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>79,96%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>79,52%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>74,99%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>84,15%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>79,8%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>80,31%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>76,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>82,87; 88,79</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>75,08; 82,76</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>77,92; 83,85</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>73,53; 80,82</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>79,26; 84,33</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>77,24; 82,37</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>76,99; 81,77</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>71,61; 78,08</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>82,01; 85,83</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>77,55; 81,86</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>78,46; 82,06</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>73,9; 78,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>9,96%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>16,35%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>10,47%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>7,96; 13,18</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 13,35</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 12,85</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>11,26; 17,0</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 11,62</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>8,96; 13,18</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>8,95; 12,73</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 19,5</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>8,38; 11,52</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 12,54</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>8,97; 11,93</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>13,25; 17,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
